--- a/shunfeng.xlsx
+++ b/shunfeng.xlsx
@@ -24,30 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">446013397562 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">036372828045 </t>
   </si>
   <si>
-    <t xml:space="preserve">441938244173 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">048786452550 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">465109751774 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">811004666022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">884611408949 </t>
-  </si>
-  <si>
-    <t>884562500489</t>
+    <t>114750081239</t>
   </si>
 </sst>
 </file>
@@ -371,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -384,102 +366,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/shunfeng.xlsx
+++ b/shunfeng.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="15800" yWindow="-21140" windowWidth="42500" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">036372828045 </t>
+    <t>265947157042</t>
   </si>
   <si>
-    <t>114750081239</t>
+    <t>265947157051</t>
+  </si>
+  <si>
+    <t>265947157060</t>
   </si>
 </sst>
 </file>
@@ -353,25 +356,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A4" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
